--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H2">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6698327409749389</v>
+        <v>0.6896435000000001</v>
       </c>
       <c r="N2">
-        <v>0.6698327409749389</v>
+        <v>1.379287</v>
       </c>
       <c r="O2">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="P2">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
       <c r="Q2">
-        <v>0.308522834236893</v>
+        <v>0.396226397203</v>
       </c>
       <c r="R2">
-        <v>0.308522834236893</v>
+        <v>2.377358383218</v>
       </c>
       <c r="S2">
-        <v>0.03173308366103752</v>
+        <v>0.03192461458046126</v>
       </c>
       <c r="T2">
-        <v>0.03173308366103752</v>
+        <v>0.02377638465777991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H3">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94065451455437</v>
+        <v>3.068283333333333</v>
       </c>
       <c r="N3">
-        <v>2.94065451455437</v>
+        <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="P3">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
       <c r="Q3">
-        <v>1.354456134857363</v>
+        <v>1.762845369766667</v>
       </c>
       <c r="R3">
-        <v>1.354456134857363</v>
+        <v>15.8656083279</v>
       </c>
       <c r="S3">
-        <v>0.1393124432716447</v>
+        <v>0.1420353600669325</v>
       </c>
       <c r="T3">
-        <v>0.1393124432716447</v>
+        <v>0.1586747749505109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H4">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.12320122407636</v>
+        <v>5.304132666666667</v>
       </c>
       <c r="N4">
-        <v>5.12320122407636</v>
+        <v>15.912398</v>
       </c>
       <c r="O4">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="P4">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
       <c r="Q4">
-        <v>2.359730221185315</v>
+        <v>3.047425774041333</v>
       </c>
       <c r="R4">
-        <v>2.359730221185315</v>
+        <v>27.426831966372</v>
       </c>
       <c r="S4">
-        <v>0.2427098036732539</v>
+        <v>0.2455361227459804</v>
       </c>
       <c r="T4">
-        <v>0.2427098036732539</v>
+        <v>0.2743006319030685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H5">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.49098436464898</v>
+        <v>5.490996</v>
       </c>
       <c r="N5">
-        <v>5.49098436464898</v>
+        <v>16.472988</v>
       </c>
       <c r="O5">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="P5">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
       <c r="Q5">
-        <v>2.529129968275694</v>
+        <v>3.154785859848</v>
       </c>
       <c r="R5">
-        <v>2.529129968275694</v>
+        <v>28.393072738632</v>
       </c>
       <c r="S5">
-        <v>0.2601333968405917</v>
+        <v>0.2541863019993003</v>
       </c>
       <c r="T5">
-        <v>0.2601333968405917</v>
+        <v>0.2839641779781819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H6">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.779007563898205</v>
+        <v>0.9428843333333333</v>
       </c>
       <c r="N6">
-        <v>0.779007563898205</v>
+        <v>2.828653</v>
       </c>
       <c r="O6">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="P6">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
       <c r="Q6">
-        <v>0.3588084111207157</v>
+        <v>0.5417228791046667</v>
       </c>
       <c r="R6">
-        <v>0.3588084111207157</v>
+        <v>4.875505911942</v>
       </c>
       <c r="S6">
-        <v>0.03690520138173965</v>
+        <v>0.04364750619069392</v>
       </c>
       <c r="T6">
-        <v>0.03690520138173965</v>
+        <v>0.0487608030753448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H7">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.10466027912086</v>
+        <v>6.106310000000001</v>
       </c>
       <c r="N7">
-        <v>6.10466027912086</v>
+        <v>12.21262</v>
       </c>
       <c r="O7">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="P7">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
       <c r="Q7">
-        <v>2.811787146484404</v>
+        <v>3.50830713478</v>
       </c>
       <c r="R7">
-        <v>2.811787146484404</v>
+        <v>21.04984280868</v>
       </c>
       <c r="S7">
-        <v>0.2892060711717326</v>
+        <v>0.2826700944166318</v>
       </c>
       <c r="T7">
-        <v>0.2892060711717326</v>
+        <v>0.210523227435114</v>
       </c>
     </row>
   </sheetData>
